--- a/biology/Médecine/Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles/Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles.xlsx
+++ b/biology/Médecine/Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles/Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_de_travail_de_psychoth%C3%A9rapie_et_de_socioth%C3%A9rapie_institutionnelles</t>
+          <t>Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupe de travail de psychothérapie et de sociothérapie institutionnelles ou GTPSI a constitué le premier travail de réflexion collective se donnant pour tâche de dégager la problématique spécifique de la psychothérapie institutionnelle. Il s'est réuni entre 1960 et 1966.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_de_travail_de_psychoth%C3%A9rapie_et_de_socioth%C3%A9rapie_institutionnelles</t>
+          <t>Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses membres (psychiatres pour la plupart) : Jean Ayme, Hélène Chaigneau, Jean Colmin, Roger Gentis, Félix Guattari, Nicole Guillet, Ginette Michaud, Robert Millon, Jean Oury, Gisela Pankow, Jean-Claude Polack, Claude Poncin, Yves Racine, Philippe Rappard, Jacques Schotte, Horace Torrubia, François Tosquelles, Henri Vermorel...
 En quatorze rencontres, le groupe interroge l'institution de soin elle-même, le rôle du milieu, la fonction soignante, l'engagement du psychiatre, cherchant à articuler les concepts psychanalytiques dans le champ de la clinique des psychoses.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupe_de_travail_de_psychoth%C3%A9rapie_et_de_socioth%C3%A9rapie_institutionnelles</t>
+          <t>Groupe_de_travail_de_psychothérapie_et_de_sociothérapie_institutionnelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Archives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les archives du GTPSI, qui restituent les discussions du groupe (des tapuscrits d'après des enregistrements audio) sont conservées à la clinique de La Borde (Cour-Cheverny). Elles font l'objet d'un travail collectif : un site internet[1] et des livres publiés aux Éditions d'une (Paris) depuis novembre 2014.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archives du GTPSI, qui restituent les discussions du groupe (des tapuscrits d'après des enregistrements audio) sont conservées à la clinique de La Borde (Cour-Cheverny). Elles font l'objet d'un travail collectif : un site internet et des livres publiés aux Éditions d'une (Paris) depuis novembre 2014.
 </t>
         </is>
       </c>
